--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3441,4 +3442,5644 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.0203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.3255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0849</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7346</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8425</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7349</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7266</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5994</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4339</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2302</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1939</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0563</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0474</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9186</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8216</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5941</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5710</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4528</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9082,4 +9083,7880 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>259.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.9353</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.7830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7923</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3340</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0334</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6778</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6277</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5389</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2478</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2086</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1189</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0500</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8586</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8470</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5764</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>39.57</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16959,4 +16960,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>206</v>
+      </c>
+      <c r="D2" t="n">
+        <v>134.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16968,7 +16969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16979,17 +16980,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16999,14 +17020,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>206</v>
-      </c>
-      <c r="D2" t="n">
-        <v>134.57</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.4553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17015,14 +17058,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110.87</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.6345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -17031,14 +17096,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.95</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17047,13 +17134,5051 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6886</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6647</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2494</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0677</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3953</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9411</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6970</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6639</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6247</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6093</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4568</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3943</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2640</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2475</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2421</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2348</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1682</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9448</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8904</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8874</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8786</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8471</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5789</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>206</v>
+      </c>
+      <c r="D3" t="n">
+        <v>134.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22077,7 +22078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22088,17 +22089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22108,14 +22129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>119.48</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -22124,14 +22167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>206</v>
-      </c>
-      <c r="D3" t="n">
-        <v>134.57</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -22140,14 +22205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.87</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -22156,14 +22243,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.95</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -22172,13 +22281,6247 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8441</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7185</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6890</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5745</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4616</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4506</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3814</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0404</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7802</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7544</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5908</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5003</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>147</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28404,7 +28405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28415,17 +28416,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28435,14 +28456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>165</v>
-      </c>
-      <c r="D2" t="n">
-        <v>117.27</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.2224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -28451,14 +28494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>119.48</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -28467,14 +28532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>206</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134.57</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>215.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -28483,14 +28570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>147</v>
-      </c>
-      <c r="D5" t="n">
-        <v>110.87</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -28499,14 +28608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.95</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.6407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -28515,13 +28646,6297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7846</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0844</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0567</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8450</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5978</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5898</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5749</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1270</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0996</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧明睿新起点混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0540</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0472</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0415</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8975</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5937</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003115</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003116</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>165</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>119.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>206</v>
+      </c>
+      <c r="D5" t="n">
+        <v>134.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>147</v>
+      </c>
+      <c r="D6" t="n">
+        <v>110.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>127.34</v>
+        <v>63.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
-        <v>117.27</v>
+        <v>127.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D4" t="n">
-        <v>119.48</v>
+        <v>117.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>134.57</v>
+        <v>119.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
-        <v>110.87</v>
+        <v>134.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D7" t="n">
-        <v>25.95</v>
+        <v>110.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.07</v>
       </c>
     </row>
@@ -600,6 +617,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.2907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6684</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1863</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5984</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3790</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2616</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6679</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安核心混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016293</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安核心混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6997,7 +10222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13323,7 +16548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18431,7 +21656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26307,7 +29532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31947,7 +35172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32915,7 +36140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
+++ b/数据整理/stocks/A股/上证主板/603659-璞泰来.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>63.53</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>127.34</v>
+        <v>63.53</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
-        <v>117.27</v>
+        <v>127.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D5" t="n">
-        <v>119.48</v>
+        <v>117.27</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D6" t="n">
-        <v>134.57</v>
+        <v>119.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D7" t="n">
-        <v>110.87</v>
+        <v>134.57</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D8" t="n">
-        <v>25.95</v>
+        <v>110.87</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2060 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>29.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5583</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7513</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理区间精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006534</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银汇理永盛定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004763</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004764</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2664,3250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2819</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1737</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8904</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6937</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014203</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014204</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3824,7 +9115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10222,7 +15513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16548,7 +21839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21656,7 +26947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29532,7 +34823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35172,7 +40463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36138,2034 +41429,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银汇理新能源主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>153.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.9372</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4303</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001616</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实环保低碳股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2524</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001156</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信新能源汽车主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8561</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华核心价值优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>46.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8170</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001606</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5583</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4851</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160314</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0764</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>288002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏收入混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9515</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001695</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泓德泓业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7797</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009085</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华丰享一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>73.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7513</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002980</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏创新前沿股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7233</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>31.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7029</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007689</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6581</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5245</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5245</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>121003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银核心企业混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5005</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>180013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华领先策略混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4854</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007690</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2591</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>168601</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇安裕阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2560</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160612</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华丰收债券</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2437</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2147</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001704</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国投瑞银进宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1973</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>630015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华商大盘量化精选混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1947</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1919</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1753</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>151002</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银河收益债券</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1358</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010017</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000810</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>富国收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000165</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国投瑞银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>81.88</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1046</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005634</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇安行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0954</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010301</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001656</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>农银汇理中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005262</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0703</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>000014</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华夏聚利债券</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>690011</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>民生加银积极成长混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008602</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000812</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>富国收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0347</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>010302</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008078</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>农银汇理区间精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>83.99</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005263</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006534</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>农银汇理永盛定期开放混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005486</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>平安量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004763</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008603</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005487</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>平安量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004764</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>